--- a/datos/codigos_especiales.xlsx
+++ b/datos/codigos_especiales.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccusi\Documents\Proyect_Coder\codigos_cip\datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccusi\Documents\Proyect_Coder\gestion_de_stock\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3867FE1E-18DC-45A7-B71C-92841EEF78B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C733AE04-6F1C-458E-8D4D-85905D58F542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="18000" windowHeight="9360" xr2:uid="{325F3910-60B6-4BEE-B8EF-465835BC1720}"/>
+    <workbookView xWindow="510" yWindow="600" windowWidth="18000" windowHeight="11010" xr2:uid="{325F3910-60B6-4BEE-B8EF-465835BC1720}"/>
   </bookViews>
   <sheets>
     <sheet name="especiales" sheetId="1" r:id="rId1"/>
@@ -34,25 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>015931</t>
-  </si>
-  <si>
-    <t>015345</t>
-  </si>
-  <si>
-    <t>alto stock</t>
-  </si>
-  <si>
-    <t>proxima entrada</t>
-  </si>
-  <si>
-    <t>a descontinuar</t>
-  </si>
-  <si>
-    <t>01240</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
   <si>
     <t>codigo</t>
   </si>
@@ -64,6 +46,93 @@
   </si>
   <si>
     <t>motivo</t>
+  </si>
+  <si>
+    <t>016770</t>
+  </si>
+  <si>
+    <t>016750</t>
+  </si>
+  <si>
+    <t>016752</t>
+  </si>
+  <si>
+    <t>016764</t>
+  </si>
+  <si>
+    <t>016765</t>
+  </si>
+  <si>
+    <t>014270</t>
+  </si>
+  <si>
+    <t>016751</t>
+  </si>
+  <si>
+    <t>011883</t>
+  </si>
+  <si>
+    <t>016784</t>
+  </si>
+  <si>
+    <t>014323</t>
+  </si>
+  <si>
+    <t>016672</t>
+  </si>
+  <si>
+    <t>016786</t>
+  </si>
+  <si>
+    <t>016783</t>
+  </si>
+  <si>
+    <t>015939</t>
+  </si>
+  <si>
+    <t>016787</t>
+  </si>
+  <si>
+    <t>016785</t>
+  </si>
+  <si>
+    <t>015938</t>
+  </si>
+  <si>
+    <t>014268</t>
+  </si>
+  <si>
+    <t>016729</t>
+  </si>
+  <si>
+    <t>016730</t>
+  </si>
+  <si>
+    <t>016788</t>
+  </si>
+  <si>
+    <t>EN INSPECCIÓN</t>
+  </si>
+  <si>
+    <t>INGRESÓ</t>
+  </si>
+  <si>
+    <t>10 DE SETIEMBRE</t>
+  </si>
+  <si>
+    <t>6 DE OCTUBRE</t>
+  </si>
+  <si>
+    <t>20 DE OCTUBRE</t>
+  </si>
+  <si>
+    <t>13 DE NOVIEMBRE</t>
+  </si>
+  <si>
+    <t>26 DE NOVIEMBRE</t>
+  </si>
+  <si>
+    <t>23 DE OCTUBRE</t>
   </si>
 </sst>
 </file>
@@ -413,31 +482,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E015A6FE-854C-4D0C-BFD8-8D173EA7CD2D}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -446,21 +515,16 @@
         <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A3" s="2"/>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" s="1">
         <v>60</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -474,7 +538,285 @@
         <v>60</v>
       </c>
       <c r="D4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
         <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="D31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="D32" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
